--- a/Excel-2013/Excel Unit D/EX D-Quarterly Tour Expenses 90.xlsx
+++ b/Excel-2013/Excel Unit D/EX D-Quarterly Tour Expenses 90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Github_MS_Office_2013\microsoftOffice2013\Excel-2013\Excel Unit D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEC6793-1585-411F-95A0-1A8384198EB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{546D5163-77E0-439B-BF33-F518CA24A5F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>Total</t>
   </si>
@@ -550,24 +550,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent3"/>
-              </a:fgClr>
-              <a:bgClr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
                 </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
             <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent3"/>
-              </a:innerShdw>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="64000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -657,17 +677,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent4"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1605,15 +1617,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>5557</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15876</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
+      <xdr:colOff>7939</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1961,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
